--- a/biology/Botanique/Philippe_Treyve/Philippe_Treyve.xlsx
+++ b/biology/Botanique/Philippe_Treyve/Philippe_Treyve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Treyve (1943), ingénieur agronome, architecte paysagiste, cofondateur de Jardiland en France. Il a été le dernier directeur (jusqu'en 1993) de la Société des parcs et jardins Treyve appartenant à la dynastie de paysagistes Marie et Treyve, qui s'est illustrée à Moulins à partir de 1845.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Treyve, né en 1943, est le fils de François-Annet Treyve[1], auquel il succède en 1971 à la tête de l'entreprise familiale. Il y reste jusqu'en 1993, quand elle est cédée à Aymar de Seroux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Treyve, né en 1943, est le fils de François-Annet Treyve, auquel il succède en 1971 à la tête de l'entreprise familiale. Il y reste jusqu'en 1993, quand elle est cédée à Aymar de Seroux.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses œuvres, on peut citer :
 Les 700 hectares d'Abou Dabi plantés de 60 000 arbres ;
